--- a/Тренажеры/Глаголы/Отдельно/10. Тренажер глаг müssen.xlsx
+++ b/Тренажеры/Глаголы/Отдельно/10. Тренажер глаг müssen.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="7575" windowHeight="1125"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="7575" windowHeight="1125" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Тренажер местоимений исходный" sheetId="8" r:id="rId1"/>
+    <sheet name="Тренажер местоимений номенатив" sheetId="8" r:id="rId1"/>
+    <sheet name="Претеритум" sheetId="9" r:id="rId2"/>
+    <sheet name="Начальный набор" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="24">
   <si>
     <t xml:space="preserve"> -. -. -. -. -. -. -. -.</t>
   </si>
@@ -47,6 +49,45 @@
   </si>
   <si>
     <t>Вы (один на Вы) должны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я был должен </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мы были должны </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ты был должен </t>
+  </si>
+  <si>
+    <t>Он был должен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Она была должна </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оно было должно </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Они были  должны </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы были  (много на Ты был) должны </t>
+  </si>
+  <si>
+    <t>Вы были  (много на Вы были ) должны</t>
+  </si>
+  <si>
+    <t>Вы были  (один на Вы были ) должны</t>
+  </si>
+  <si>
+    <t>Вы были  (один на Вы) должны</t>
+  </si>
+  <si>
+    <t>Вы были  (много на Вы) должны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы были  (много на Ты) должны </t>
   </si>
 </sst>
 </file>
@@ -390,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -404,7 +445,7 @@
     <row r="1" spans="1:4">
       <c r="A1">
         <f t="shared" ref="A1:A40" ca="1" si="0">RAND()</f>
-        <v>2.9348202497610387E-2</v>
+        <v>0.89959509261779402</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -419,7 +460,7 @@
     <row r="2" spans="1:4">
       <c r="A2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71925828387509583</v>
+        <v>0.88089354673102771</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -434,7 +475,7 @@
     <row r="3" spans="1:4">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61842700796253891</v>
+        <v>0.38294322441320716</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -449,7 +490,7 @@
     <row r="4" spans="1:4">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58638579426120341</v>
+        <v>5.4251457556775406E-2</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -464,7 +505,7 @@
     <row r="5" spans="1:4">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41149791989245266</v>
+        <v>0.67387315369474443</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -479,7 +520,7 @@
     <row r="6" spans="1:4">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81993904337381762</v>
+        <v>0.98438366872375926</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -494,7 +535,7 @@
     <row r="7" spans="1:4">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98288297482178177</v>
+        <v>0.86925742890870628</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -509,7 +550,7 @@
     <row r="8" spans="1:4">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60994520086278503</v>
+        <v>0.76054209063849587</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -524,7 +565,7 @@
     <row r="9" spans="1:4">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18779195302725871</v>
+        <v>0.73820803496236587</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -539,7 +580,7 @@
     <row r="10" spans="1:4">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61033172562348703</v>
+        <v>0.84329616340435809</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -554,7 +595,7 @@
     <row r="11" spans="1:4">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82540740256150191</v>
+        <v>0.10820439370538271</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -569,7 +610,7 @@
     <row r="12" spans="1:4">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20143597686767745</v>
+        <v>0.37384185463970265</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -584,7 +625,7 @@
     <row r="13" spans="1:4">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98304797809031763</v>
+        <v>0.24626029260004767</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -599,7 +640,7 @@
     <row r="14" spans="1:4">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45799492034000577</v>
+        <v>0.87800305843641091</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -614,7 +655,7 @@
     <row r="15" spans="1:4">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62374635190339367</v>
+        <v>0.66709505950997183</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -629,7 +670,7 @@
     <row r="16" spans="1:4">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2856724303570628</v>
+        <v>0.70933528262653311</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -644,7 +685,7 @@
     <row r="17" spans="1:4">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82889965201812954</v>
+        <v>0.67586714487376831</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -659,7 +700,7 @@
     <row r="18" spans="1:4">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5815483695943362</v>
+        <v>0.56707309662115546</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -674,7 +715,7 @@
     <row r="19" spans="1:4">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24875940303527599</v>
+        <v>0.75511021590751515</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -689,7 +730,7 @@
     <row r="20" spans="1:4">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86343306945970211</v>
+        <v>0.28447140796489734</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -704,7 +745,7 @@
     <row r="21" spans="1:4">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46285354645045484</v>
+        <v>0.79407413629578394</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -719,7 +760,7 @@
     <row r="22" spans="1:4">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94912206966526691</v>
+        <v>3.8755269507174228E-2</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -734,7 +775,7 @@
     <row r="23" spans="1:4">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32822727924841444</v>
+        <v>0.4333337987875221</v>
       </c>
       <c r="B23">
         <v>23</v>
@@ -749,7 +790,7 @@
     <row r="24" spans="1:4">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75548684056869764</v>
+        <v>0.49558925652380692</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -764,7 +805,7 @@
     <row r="25" spans="1:4">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32408380039390461</v>
+        <v>0.64541041015800826</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -779,7 +820,7 @@
     <row r="26" spans="1:4">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90281047323142594</v>
+        <v>0.86063350900790958</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -794,7 +835,7 @@
     <row r="27" spans="1:4">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95875339307386298</v>
+        <v>0.95504672127495915</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -809,7 +850,7 @@
     <row r="28" spans="1:4">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28339406165463199</v>
+        <v>0.45293551660969222</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -824,7 +865,7 @@
     <row r="29" spans="1:4">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86330793317680699</v>
+        <v>0.31589820743223829</v>
       </c>
       <c r="B29">
         <v>29</v>
@@ -839,7 +880,7 @@
     <row r="30" spans="1:4">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91481314600658337</v>
+        <v>8.4808639617465431E-2</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -854,7 +895,7 @@
     <row r="31" spans="1:4">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5599751881390902</v>
+        <v>0.8239752280939987</v>
       </c>
       <c r="B31">
         <v>31</v>
@@ -869,7 +910,7 @@
     <row r="32" spans="1:4">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73411138685905986</v>
+        <v>6.2283059341906144E-2</v>
       </c>
       <c r="B32">
         <v>32</v>
@@ -884,7 +925,7 @@
     <row r="33" spans="1:4">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3726512531347552E-2</v>
+        <v>0.47154691595350773</v>
       </c>
       <c r="B33">
         <v>33</v>
@@ -899,7 +940,7 @@
     <row r="34" spans="1:4">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19870124728449001</v>
+        <v>0.74162878995805648</v>
       </c>
       <c r="B34">
         <v>34</v>
@@ -914,7 +955,7 @@
     <row r="35" spans="1:4">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5276194837736492</v>
+        <v>0.91216306576400563</v>
       </c>
       <c r="B35">
         <v>35</v>
@@ -929,7 +970,7 @@
     <row r="36" spans="1:4">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1634926648862454E-4</v>
+        <v>0.53787396733543691</v>
       </c>
       <c r="B36">
         <v>36</v>
@@ -944,7 +985,7 @@
     <row r="37" spans="1:4">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29735140201833188</v>
+        <v>0.52625783534253978</v>
       </c>
       <c r="B37">
         <v>37</v>
@@ -959,7 +1000,7 @@
     <row r="38" spans="1:4">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62587161355575915</v>
+        <v>0.95889569663850871</v>
       </c>
       <c r="B38">
         <v>38</v>
@@ -974,7 +1015,7 @@
     <row r="39" spans="1:4">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36747533995570159</v>
+        <v>0.81435084110664802</v>
       </c>
       <c r="B39">
         <v>39</v>
@@ -989,7 +1030,7 @@
     <row r="40" spans="1:4">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42928845294948248</v>
+        <v>0.2130662613926681</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -1005,4 +1046,726 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="65.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1">
+        <f t="shared" ref="A1:A40" ca="1" si="0">RAND()</f>
+        <v>0.91815940931447315</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4587875883523056</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31456889116244935</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35890458086080201</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.081196515765221E-3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89923245148824726</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.28162502985772342</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93194139695601397</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49829734451885255</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31889157734658635</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.27380647640081701</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16222041387341468</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65664912218108284</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40432200267532004</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38918772990987582</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.6376896365292213E-2</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.2818870999454823E-2</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88632529155320738</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.50208004884045465</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47528984784304384</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56659782977652107</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32803155763049618</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9212484976434927</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65502751416728544</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8064010334696432</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51262261741086546</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7034791005361094</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22412239624661989</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59516969280429066</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0879973981140099E-2</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88717848019786083</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83517963024404063</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10644599104365771</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46568571271222403</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40515415610811178</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19844666736266126</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46706140757580106</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.53537496080663782</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81462605943945054</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79503377521452312</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="21">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="21">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="21">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="21">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="21">
+      <c r="A11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>